--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26186141ca3848c4/Documentos/Curso R/202207-r4ds-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26186141ca3848c4/Documentos/Curso R/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="11_D0AA03E409E51A0DCC046C2A438315E979EB41EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABE2B7E-4740-4547-809C-EED3F04B8F63}"/>
